--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06ECD38-6EEC-4C3B-AD64-4EA1C043799C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5C375-6F44-417F-8DCE-2F2A8320513E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>プレイヤーの動き</t>
     <rPh sb="6" eb="7">
@@ -151,35 +151,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドローンはプレイヤー誘導時に
-防衛ラインと違う方向に進んだ場合発射される</t>
-    <rPh sb="10" eb="12">
-      <t>ユウドウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ボウエイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ハッシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,6 +467,202 @@
   <si>
     <t xml:space="preserve">
 ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコンに向かって移動</t>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小型ドローンを発射</t>
+    <rPh sb="0" eb="2">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに向けてミサイルを発射</t>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再度ビーコンに向けて移動開始</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射影機の前に誘導される</t>
+    <rPh sb="0" eb="2">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに撮影される</t>
+    <rPh sb="6" eb="8">
+      <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル発射の予備動作を開始</t>
+    <rPh sb="4" eb="6">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコンに向けてミサイルが発射</t>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射影機の防衛成功
+ロボットの弱点が博士に送信される</t>
+    <rPh sb="0" eb="2">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジャクテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再度、ミサイル発射
+射影機を破壊</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射影機にミサイルが被弾
+射影機の破壊に成功</t>
+    <rPh sb="0" eb="2">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒダン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ゆっくりとプレイヤーに進行
+</t>
+    <rPh sb="11" eb="13">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防衛ラインに向かって移動</t>
+    <rPh sb="0" eb="2">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1487,11 +1654,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>887187</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>245568</xdr:rowOff>
+      <xdr:rowOff>242454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:colOff>432954</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
@@ -1508,8 +1675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14358258" y="7974425"/>
-          <a:ext cx="1303563" cy="383082"/>
+          <a:off x="14360732" y="7845136"/>
+          <a:ext cx="1675904" cy="386196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,11 +1724,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>3461658</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>343539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2125436</xdr:colOff>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>73479</xdr:rowOff>
     </xdr:to>
@@ -1578,8 +1745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10197194" y="12208968"/>
-          <a:ext cx="2228849" cy="383082"/>
+          <a:off x="10198431" y="11862955"/>
+          <a:ext cx="3690751" cy="523751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,6 +1783,13 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>弱点に当たらなかった</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>一定時間内に発射しなかった</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1694,16 +1868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2177143</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1728107</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>505547</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1311235</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>453984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56904</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>183923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1718,8 +1892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21172714" y="2735036"/>
-          <a:ext cx="1741714" cy="383082"/>
+          <a:off x="25366190" y="1735529"/>
+          <a:ext cx="2036123" cy="370712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1769,15 +1943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>634733</xdr:rowOff>
+      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>585108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1792,8 +1966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25254856" y="2653393"/>
-          <a:ext cx="2000251" cy="593911"/>
+          <a:off x="25486178" y="1891394"/>
+          <a:ext cx="2000250" cy="340178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,6 +2008,1519 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2054679</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>340178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27218</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>421822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F3FE45-0584-4BBD-B9E2-E0058AC3947B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="619127" y="4184195"/>
+          <a:ext cx="8028215" cy="4259039"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2054678</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6598A894-4088-4854-958A-0B9474660140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2503714" y="2326821"/>
+          <a:ext cx="4109357" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>505938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2367643</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>462278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64B296C-4DD4-48D2-92E6-82540225A2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19760046" y="3069029"/>
+          <a:ext cx="1605642" cy="597113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ドローンがプレイヤーを発見した</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>206827</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2060862</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CAE9B1-0B18-4DFD-AC21-8A50E8F94E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24261782" y="3272146"/>
+          <a:ext cx="1854035" cy="641763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ドローンがプレイヤーを発見しなかった</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>289955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2377786</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20506C4-43E9-4332-A40D-9E2998CFE04F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22041592" y="2212273"/>
+          <a:ext cx="1793421" cy="597113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>防衛ライン以外の方向に誘導された</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2849130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>812862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>519546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AB017A-E961-477F-9E56-C1FEBD9828ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299403" y="4657498"/>
+          <a:ext cx="3402733" cy="624548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ドローンはプレイヤー誘導時に</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>防衛ラインと違う方向に進んだ場合発射される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>917864</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>519546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2659578</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>249485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288E908E-A3A1-4416-A7FA-4861D57BAE4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24972819" y="6840682"/>
+          <a:ext cx="1741714" cy="370712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ビーコンが設置された</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184316</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>571502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2130137</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>279567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C363B1A-6645-47E4-83DF-27B264A51BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30075498" y="6892638"/>
+          <a:ext cx="1945821" cy="348838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ビーコンが設置されてない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1073728</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>710047</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>519544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1536E7D4-A9E1-4754-8D02-2153129D8278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33164319" y="8399317"/>
+          <a:ext cx="1489364" cy="363682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プレイヤーに被弾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>140030</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>585992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>64572</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62408C80-808B-45E4-B60C-AA8A607FEC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30031212" y="11617674"/>
+          <a:ext cx="2123951" cy="764825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>弱点に当たらなかった</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>攻撃されなかった</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>849335</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>369762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2969</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D41FD0E-DCFC-4685-92EA-1572EDC0B3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24904290" y="12042217"/>
+          <a:ext cx="2444088" cy="370713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>弱点に当たった</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2493818</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>346363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="コネクタ: カギ線 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AFFA13-B36A-4B9D-AE4D-BA7F56545CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29839227" y="2268681"/>
+          <a:ext cx="571500" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2389909</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>256308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3286990</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8253C243-BDDC-40BC-8E52-659AFAC339C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="26444864" y="2178626"/>
+          <a:ext cx="897081" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100193"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2126674</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>218207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426027</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>637307</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="コネクタ: カギ線 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15937EF1-5D22-4DA4-BD12-8A917DEE4C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="23583901" y="2781298"/>
+          <a:ext cx="897081" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100193"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2888671</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>204354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1489363</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>813955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BD0CD3-CD6E-413D-89D2-B40CC245E016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="26484694" y="3226377"/>
+          <a:ext cx="2809010" cy="1891146"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 678"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1655619</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>561108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93518</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>339436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E8C567-EDEC-48F0-AAE3-C5DEFDEDB838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="20653664" y="3764972"/>
+          <a:ext cx="897081" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100193"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2195945</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>602672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169717</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="コネクタ: カギ線 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19C076B-E281-4877-9E02-C41C24A07622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23653172" y="3806536"/>
+          <a:ext cx="571500" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2369127</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>290945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394854</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA29653-C5D8-4231-AFDA-FECA78E747F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29714536" y="7252854"/>
+          <a:ext cx="571500" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2712030</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27706</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="コネクタ: カギ線 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E3862E-44B5-406D-BF77-9E2022F20F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="26766985" y="7100453"/>
+          <a:ext cx="595743" cy="529935"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99419"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10390</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>495299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581890</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0380BA05-7311-4332-9934-1DBCFEFA97DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32100981" y="8738754"/>
+          <a:ext cx="571500" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1818410</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>408708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27710</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="コネクタ: カギ線 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E28AA9-FCA8-46D1-AE5B-2686C851B6B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="29096278" y="9585613"/>
+          <a:ext cx="890155" cy="755073"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -583"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2909455</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301342</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="コネクタ: カギ線 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BA9225-B25F-4B36-B272-459571720CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26964410" y="9940637"/>
+          <a:ext cx="682341" cy="474515"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98223"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128153</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>214746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>699653</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>624196</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="コネクタ: カギ線 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628E63B0-F14A-4A20-8472-4610CF770848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30019335" y="12527973"/>
+          <a:ext cx="571500" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2431475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3027218</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41559</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352BB182-70DF-410F-A2B1-E392E6B793DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="26486430" y="12465624"/>
+          <a:ext cx="595743" cy="529935"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99419"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2102,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="51" customHeight="1"/>
@@ -2117,173 +3804,245 @@
     <col min="5" max="5" width="41.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="24.375" style="2"/>
+    <col min="8" max="8" width="32.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34" style="2" customWidth="1"/>
+    <col min="10" max="10" width="43.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="33.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="24.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" customHeight="1">
+    <row r="1" spans="1:13" ht="51" customHeight="1">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" customHeight="1">
+    <row r="2" spans="1:13" ht="51" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" customHeight="1">
+    <row r="3" spans="1:13" ht="51" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" customHeight="1">
+    <row r="4" spans="1:13" ht="51" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="51" customHeight="1">
+    <row r="5" spans="1:13" ht="51" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="51" customHeight="1">
+    <row r="6" spans="1:13" ht="51" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
+      <c r="G6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72.75" customHeight="1">
+    <row r="7" spans="1:13" ht="72.75" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="72.75" customHeight="1">
+    <row r="8" spans="1:13" ht="72.75" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="51" customHeight="1">
+    <row r="9" spans="1:13" ht="51" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" customHeight="1">
+    <row r="10" spans="1:13" ht="51" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" customHeight="1">
+    <row r="11" spans="1:13" ht="51" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="51" customHeight="1">
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:13" ht="68.25" customHeight="1">
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="L13" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="68.25" customHeight="1">
-      <c r="C13" s="4" t="s">
+    <row r="14" spans="1:13" ht="51" customHeight="1">
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="51" customHeight="1">
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="C14" s="4" t="s">
-        <v>21</v>
+    <row r="16" spans="1:13" ht="51" customHeight="1">
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1">
-      <c r="D15" s="2" t="s">
+    <row r="17" spans="3:12" ht="51" customHeight="1">
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" customHeight="1">
-      <c r="D16" s="2" t="s">
+    <row r="18" spans="3:12" ht="51" customHeight="1">
+      <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="3:5" ht="51" customHeight="1">
-      <c r="D17" s="2" t="s">
+    <row r="19" spans="3:12" ht="51" customHeight="1">
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="51" customHeight="1">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="51" customHeight="1">
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="51" customHeight="1">
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="51" customHeight="1">
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5C375-6F44-417F-8DCE-2F2A8320513E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E815362-62FC-48BF-8FCA-2388757ACEB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>プレイヤーの動き</t>
     <rPh sb="6" eb="7">
@@ -663,6 +663,50 @@
   </si>
   <si>
     <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに向かって移動
+攻撃</t>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誘導再開</t>
+    <rPh sb="0" eb="2">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防衛ラインに向かって移動再開</t>
+    <rPh sb="0" eb="2">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1868,13 +1912,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1311235</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>453984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>56904</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>183923</xdr:rowOff>
@@ -1942,13 +1986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2231571</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>585108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>122464</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>272143</xdr:rowOff>
@@ -2123,13 +2167,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>762001</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>505938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>2367643</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>462278</xdr:rowOff>
@@ -2193,13 +2237,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>206827</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>68282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2060862</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
@@ -2263,13 +2307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>584365</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>289955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2377786</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>246295</xdr:rowOff>
@@ -2409,13 +2453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>917864</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>519546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2659578</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>249485</xdr:rowOff>
@@ -2483,13 +2527,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>184316</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>571502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>2130137</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>279567</xdr:rowOff>
@@ -2553,13 +2597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1073728</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>155862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>710047</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>519544</xdr:rowOff>
@@ -2623,13 +2667,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>140030</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>585992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>64572</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
@@ -2701,13 +2745,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>849335</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>369762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2969</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>99703</xdr:rowOff>
@@ -2771,13 +2815,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2493818</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>346363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>519545</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>115040</xdr:rowOff>
@@ -2829,13 +2873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2389909</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>256308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3286990</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>34635</xdr:rowOff>
@@ -2887,13 +2931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2126674</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>218207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>426027</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>637307</xdr:rowOff>
@@ -2945,13 +2989,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2888671</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>204354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1489363</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>813955</xdr:rowOff>
@@ -3003,13 +3047,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1655619</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>561108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>93518</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>339436</xdr:rowOff>
@@ -3061,13 +3105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2195945</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>602672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>169717</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>371350</xdr:rowOff>
@@ -3119,13 +3163,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2369127</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>290945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>394854</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>59622</xdr:rowOff>
@@ -3177,13 +3221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2712030</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>17319</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>27706</xdr:rowOff>
@@ -3235,13 +3279,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>10390</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>495299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>581890</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38840</xdr:rowOff>
@@ -3293,13 +3337,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1818410</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>408708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>27710</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -3351,13 +3395,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2909455</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>301342</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>24243</xdr:rowOff>
@@ -3409,13 +3453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>128153</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>214746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>699653</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>624196</xdr:rowOff>
@@ -3467,13 +3511,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2431475</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3027218</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>41559</xdr:rowOff>
@@ -3498,6 +3542,905 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 99419"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55663</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>306781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1593273</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>502227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="コネクタ: カギ線 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6160C10-1186-4D37-9E1F-5124679A2546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10359981" y="1588326"/>
+          <a:ext cx="6836974" cy="836219"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99900"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1527664</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>611841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B56A9A5-87DC-4CC5-B415-4ABACFA59440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11831982" y="1299475"/>
+          <a:ext cx="1658881" cy="593911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プレイヤーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロボットに発見された</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60857</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>220188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>402026</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>629638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="コネクタ: カギ線 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789446E7-C663-409E-B71C-73D5FB6D6BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19058902" y="2783279"/>
+          <a:ext cx="341169" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>316056</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>464740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1974272</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A9D327-7FD6-4C16-A5CA-EF3F29ABD07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19314101" y="2387058"/>
+          <a:ext cx="1658216" cy="314580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プレイヤーが被弾した</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1436173</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>143741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>522019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="コネクタ: カギ線 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392AA01B-9D18-4B14-B513-201A4D9224B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14909718" y="2706832"/>
+          <a:ext cx="778328" cy="378278"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100699"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243319</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>547867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1901535</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7F61FA-76D0-4ABB-902C-D8AFB24DA2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716864" y="1829412"/>
+          <a:ext cx="1658216" cy="854905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロボットがプレイヤーを見失った。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>（ビル三個分離れる）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>277090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="コネクタ: カギ線 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2BC339-FC07-4278-8872-9564B186EAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34428545" y="1558635"/>
+          <a:ext cx="4052455" cy="432956"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99572"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>329246</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>534010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>135081</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>487149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486E7B60-F4E1-40C6-8BB4-E9C4E317BA10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36281791" y="1174783"/>
+          <a:ext cx="1658881" cy="593911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プレイヤーを発見した</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2199411</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>450273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="コネクタ: カギ線 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0775056D-ED0D-496B-945E-AA1CB44B36D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="38151956" y="2563090"/>
+          <a:ext cx="1070263" cy="450274"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 101780"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1192353</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>613678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183C2272-ADB3-447A-AF2A-4CBFD17E6227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37144898" y="1895223"/>
+          <a:ext cx="1665147" cy="806413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ロボットがプレイヤーを見失った。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>（ビル三個分離れる）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2909455</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>536863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1346489</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>210670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111E2E5D-21BC-44A6-9264-C2DD74FD445C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41788773" y="1818408"/>
+          <a:ext cx="1658216" cy="314580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プレイヤーが被弾した</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3099955</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>432954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>399184</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>201631</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="コネクタ: カギ線 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E463DF1-5BF0-4A33-B98D-7926E0C59562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41979273" y="2355272"/>
+          <a:ext cx="520411" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1214440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413DD312-92EF-4F37-9CD0-FC47024C100C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="22550439" y="1809751"/>
+          <a:ext cx="9715500" cy="9429747"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 490"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>261938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B56B06-87D2-49D4-B575-CCDF31590A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22669500" y="1524000"/>
+          <a:ext cx="9453562" cy="23813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
@@ -3789,10 +4732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="51" customHeight="1"/>
@@ -3809,77 +4752,98 @@
     <col min="10" max="10" width="43.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="33.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="24.375" style="2"/>
+    <col min="13" max="13" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="2"/>
+    <col min="15" max="15" width="38.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="42.375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="24.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1">
+    <row r="1" spans="1:17" ht="51" customHeight="1">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="51" customHeight="1">
+    <row r="2" spans="1:17" ht="51" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="51" customHeight="1">
+    <row r="3" spans="1:17" ht="51" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="51" customHeight="1">
+    <row r="4" spans="1:17" ht="51" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="P4" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="51" customHeight="1">
+    <row r="5" spans="1:17" ht="51" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="G5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="Q5" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="51" customHeight="1">
+    <row r="6" spans="1:17" ht="51" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="72.75" customHeight="1">
+    <row r="7" spans="1:17" ht="72.75" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3889,50 +4853,50 @@
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="72.75" customHeight="1">
+    <row r="8" spans="1:17" ht="72.75" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1">
+    <row r="9" spans="1:17" ht="51" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="51" customHeight="1">
+    <row r="10" spans="1:17" ht="51" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="51" customHeight="1">
+    <row r="11" spans="1:17" ht="51" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3942,25 +4906,25 @@
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="51" customHeight="1">
+    <row r="12" spans="1:17" ht="51" customHeight="1">
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="68.25" customHeight="1">
+    <row r="13" spans="1:17" ht="68.25" customHeight="1">
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
@@ -3970,78 +4934,78 @@
       <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="51" customHeight="1">
+    <row r="14" spans="1:17" ht="51" customHeight="1">
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="51" customHeight="1">
+    <row r="15" spans="1:17" ht="51" customHeight="1">
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="51" customHeight="1">
+    <row r="16" spans="1:17" ht="51" customHeight="1">
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="51" customHeight="1">
+    <row r="17" spans="3:14" ht="51" customHeight="1">
       <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="51" customHeight="1">
+    <row r="18" spans="3:14" ht="51" customHeight="1">
       <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="51" customHeight="1">
+    <row r="19" spans="3:14" ht="51" customHeight="1">
       <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="51" customHeight="1">
+    <row r="20" spans="3:14" ht="51" customHeight="1">
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>41</v>
       </c>
     </row>

--- a/フローチャート.xlsx
+++ b/フローチャート.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E815362-62FC-48BF-8FCA-2388757ACEB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3BA74-E55E-41D4-B048-F4F0A68CCA6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>プレイヤーの動き</t>
     <rPh sb="6" eb="7">
@@ -103,17 +103,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビーコンを設置
-ロボを誘導</t>
-    <rPh sb="5" eb="7">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ユウドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -480,16 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小型ドローンを発射</t>
-    <rPh sb="0" eb="2">
-      <t>コガタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーに向けてミサイルを発射</t>
     <rPh sb="6" eb="7">
       <t>ム</t>
@@ -706,6 +685,84 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+再度ビーコンに向けて移動開始</t>
+    <rPh sb="1" eb="3">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小型ドローンを発射
+発射後移動ビーコンに向けて移動</t>
+    <rPh sb="0" eb="2">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ビーコンを設置
+ロボを誘導
+</t>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコンに到着後ビーコンを破壊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットが再度防衛ラインに向けて進行開始</t>
+    <rPh sb="5" eb="7">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -808,13 +865,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2140322</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>607518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>551488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -878,13 +935,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>51545</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>6723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1277471</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>600634</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -948,13 +1005,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1836966</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>215633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>598715</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1018,13 +1075,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>70757</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>218354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2299606</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>601436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1092,13 +1149,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1306285</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>244930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1877785</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1147,13 +1204,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1360715</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>220436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2139043</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>598714</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1202,13 +1259,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2343149</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>315688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2914649</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>84366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1257,13 +1314,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1091293</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>345622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1869621</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>70757</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1312,13 +1369,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46263</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>182337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>617763</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>604158</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1367,13 +1424,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>29935</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>560616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>601435</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1422,13 +1479,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2805793</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>495301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>873579</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1477,13 +1534,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>212273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647698</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>634094</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1532,13 +1589,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3080657</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>380999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>522513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1587,13 +1644,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>51706</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>228602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>623206</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>650423</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1642,13 +1699,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2277836</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>225881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3056164</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>604159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1697,13 +1754,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>887187</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>242454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>432954</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1767,13 +1824,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3461658</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>415637</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>73479</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1844,13 +1901,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>987880</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>387082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>117022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1913,7 +1970,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1311235</xdr:colOff>
+      <xdr:colOff>484909</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>453984</xdr:rowOff>
     </xdr:from>
@@ -1921,7 +1978,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>56904</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>183923</xdr:rowOff>
+      <xdr:rowOff>415637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1936,8 +1993,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25366190" y="1735529"/>
-          <a:ext cx="2036123" cy="370712"/>
+          <a:off x="30376091" y="1735529"/>
+          <a:ext cx="1771404" cy="602426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,8 +2067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25486178" y="1891394"/>
-          <a:ext cx="2000250" cy="340178"/>
+          <a:off x="34322162" y="1866653"/>
+          <a:ext cx="2670711" cy="327808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2057,14 +2114,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2054679</xdr:colOff>
+      <xdr:colOff>2095498</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>340178</xdr:rowOff>
+      <xdr:rowOff>398318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27218</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>27220</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>421822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2080,12 +2137,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="619127" y="4184195"/>
-          <a:ext cx="8028215" cy="4259039"/>
+          <a:off x="218334" y="4648073"/>
+          <a:ext cx="8873095" cy="4218222"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj1" fmla="val -160"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="57150">
@@ -2379,13 +2436,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2849130</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>812862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3048000</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>519546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2990,15 +3047,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2888671</xdr:colOff>
+      <xdr:colOff>2871353</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>204354</xdr:rowOff>
+      <xdr:rowOff>238990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1489363</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>813955</xdr:rowOff>
+      <xdr:colOff>1627909</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>623455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3012,13 +3069,13 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="26484694" y="3226377"/>
-          <a:ext cx="2809010" cy="1891146"/>
+        <a:xfrm>
+          <a:off x="32554717" y="3183081"/>
+          <a:ext cx="1977737" cy="384465"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 678"/>
+            <a:gd name="adj1" fmla="val 99912"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="57150">
@@ -3129,8 +3186,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23653172" y="3806536"/>
-          <a:ext cx="571500" cy="409450"/>
+          <a:off x="29541354" y="4187536"/>
+          <a:ext cx="311727" cy="409450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3570,15 +3627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>55663</xdr:colOff>
+      <xdr:colOff>124936</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>306781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1593273</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>502227</xdr:rowOff>
+      <xdr:colOff>1939636</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3593,12 +3650,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10359981" y="1588326"/>
-          <a:ext cx="6836974" cy="836219"/>
+          <a:off x="10429254" y="1588326"/>
+          <a:ext cx="7114064" cy="2013856"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99900"/>
+            <a:gd name="adj1" fmla="val 99904"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="57150">
@@ -3701,16 +3758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3247402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>254824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>60857</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>220188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>402026</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>629638</xdr:rowOff>
+      <xdr:colOff>194208</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23502</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3725,7 +3782,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19058902" y="2783279"/>
+          <a:off x="18851084" y="3839688"/>
           <a:ext cx="341169" cy="409450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3756,16 +3813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2584737</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>932330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>316056</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>464740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1974272</xdr:colOff>
+      <xdr:colOff>848590</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138547</xdr:rowOff>
+      <xdr:rowOff>606137</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3780,8 +3837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19314101" y="2387058"/>
-          <a:ext cx="1658216" cy="314580"/>
+          <a:off x="18188419" y="2854648"/>
+          <a:ext cx="1658216" cy="695580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3829,13 +3886,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1436173</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>143741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>84364</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>522019</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3883,15 +3940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243319</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>547867</xdr:rowOff>
+      <xdr:colOff>433819</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>634458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1901535</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121226</xdr:rowOff>
+      <xdr:colOff>2092035</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>207817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3906,8 +3963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716864" y="1829412"/>
-          <a:ext cx="1658216" cy="854905"/>
+          <a:off x="13907364" y="2556776"/>
+          <a:ext cx="1658216" cy="1235905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4148,15 +4205,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1192353</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>613678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:colOff>1348217</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>86592</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>865910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4171,8 +4228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37144898" y="1895223"/>
-          <a:ext cx="1665147" cy="806413"/>
+          <a:off x="39413581" y="1964496"/>
+          <a:ext cx="1665147" cy="823732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4441,6 +4498,433 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80652</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>789463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2043545</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9EE921-0259-4222-A56B-D66D4D4910C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10384970" y="2711781"/>
+          <a:ext cx="1962893" cy="388173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ビーコンが設置されてない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143985</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>268679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485154</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>37356</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="コネクタ: カギ線 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E3270F-E47E-4111-AC1A-677DBD6D9A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448303" y="3212770"/>
+          <a:ext cx="341169" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285007</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>595499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394854</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50566E79-81C9-4254-B0F9-4F0288DC47A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36116325" y="3539590"/>
+          <a:ext cx="1962893" cy="388173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ビーコンが設置されてない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2902527</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>391390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>287481</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160068</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="コネクタ: カギ線 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF71F0E-F595-4F9E-91A0-06FF92D33F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35807072" y="3976254"/>
+          <a:ext cx="311727" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3179617</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>460663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>183572</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>870113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="コネクタ: カギ線 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D47A210-4F9A-4B76-B854-E0B7F3170ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27234572" y="5604163"/>
+          <a:ext cx="294409" cy="409450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2092037</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>460662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>391390</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>879762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="コネクタ: カギ線 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C09E7C6-1EC1-404D-9B62-AD550BE86669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="29437446" y="5604162"/>
+          <a:ext cx="637308" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100193"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2684323</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1122222</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>793175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="コネクタ: カギ線 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B801E85D-066E-4028-AE94-22A7B908ED0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="32073277" y="3983186"/>
+          <a:ext cx="2247899" cy="1659080"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29969"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
@@ -4732,10 +5216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="51" customHeight="1"/>
@@ -4750,10 +5234,10 @@
     <col min="8" max="8" width="32.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="34" style="2" customWidth="1"/>
     <col min="10" max="10" width="43.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="33.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="28.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="42.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="38.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.375" style="2"/>
+    <col min="14" max="14" width="29.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="38.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="42.375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="24.375" style="2"/>
@@ -4789,18 +5273,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="51" customHeight="1">
+    <row r="4" spans="1:17" ht="81" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="51" customHeight="1">
@@ -4808,205 +5292,225 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="51" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="72.75" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>12</v>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="72.75" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="51" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="51" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="51" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="51" customHeight="1">
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="68.25" customHeight="1">
-      <c r="C13" s="4" t="s">
-        <v>21</v>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51" customHeight="1">
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="L14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="51" customHeight="1">
-      <c r="D15" s="2" t="s">
-        <v>22</v>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="51" customHeight="1">
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="51" customHeight="1">
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="51" customHeight="1">
-      <c r="D18" s="4" t="s">
-        <v>24</v>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="51" customHeight="1">
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="51" customHeight="1">
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="51" customHeight="1">
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
